--- a/predictorMessage.xlsx
+++ b/predictorMessage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>操作系统</t>
   </si>
@@ -65,7 +65,19 @@
     <t>赋值语句数</t>
   </si>
   <si>
+    <t>类名</t>
+  </si>
+  <si>
+    <t>测试数据量</t>
+  </si>
+  <si>
+    <t>cpu载荷</t>
+  </si>
+  <si>
     <t>Apple macOS 14.1.2 (Sonoma) build 23B92</t>
+  </si>
+  <si>
+    <t>/Users/vissan/IdeaProjects/Predictor/src/main/java/org/scnu/runningCode/testSort/RunCode.java</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,10 +180,19 @@
       <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>8.0</v>
@@ -183,7 +204,7 @@
         <v>1.7179869184E10</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>26.0</v>
+        <v>-53.0</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>6075.0</v>
@@ -192,34 +213,43 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>11032.0</v>
+        <v>13923.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>24.0</v>
+        <v>2.0</v>
       </c>
       <c r="K2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="L2" t="n" s="0">
-        <v>4.0</v>
-      </c>
       <c r="M2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="O2" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>14.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="S2" t="n" s="0">
+        <v>500000.0</v>
+      </c>
+      <c r="T2" t="n" s="0">
+        <v>6.63</v>
       </c>
     </row>
   </sheetData>
